--- a/Table_Source/University_Table.xlsx
+++ b/Table_Source/University_Table.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\R101100\Desktop\Git_Practice\0.SQL_for_DataScience\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\R101100\Desktop\Git_Practice\0.SQL_for_DataScience\Table_Source\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="930" yWindow="0" windowWidth="19560" windowHeight="8340"/>
+    <workbookView xWindow="1860" yWindow="0" windowWidth="19560" windowHeight="8340"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,38 +24,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="19">
   <si>
     <t>University</t>
   </si>
   <si>
-    <t>Total_Branches</t>
-  </si>
-  <si>
-    <t>Branch</t>
-  </si>
-  <si>
-    <t>Total_Students_Per_Branch</t>
-  </si>
-  <si>
     <t>IISC</t>
   </si>
   <si>
-    <t>CSE</t>
-  </si>
-  <si>
-    <t>ECE</t>
-  </si>
-  <si>
-    <t>Mechanical</t>
-  </si>
-  <si>
-    <t>EEE</t>
-  </si>
-  <si>
-    <t>Civil</t>
-  </si>
-  <si>
     <t>IIIT</t>
   </si>
   <si>
@@ -66,6 +42,45 @@
   </si>
   <si>
     <t>MIT</t>
+  </si>
+  <si>
+    <t>IIT</t>
+  </si>
+  <si>
+    <t>JNTU</t>
+  </si>
+  <si>
+    <t>MinSalary</t>
+  </si>
+  <si>
+    <t>35K</t>
+  </si>
+  <si>
+    <t>32K</t>
+  </si>
+  <si>
+    <t>36K</t>
+  </si>
+  <si>
+    <t>37K</t>
+  </si>
+  <si>
+    <t>33K</t>
+  </si>
+  <si>
+    <t>38K</t>
+  </si>
+  <si>
+    <t>PlayGround</t>
+  </si>
+  <si>
+    <t>YES</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>Total_Students</t>
   </si>
 </sst>
 </file>
@@ -392,16 +407,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="25.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -410,251 +426,111 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2">
-        <v>5</v>
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="D2">
-        <v>100</v>
+        <v>250</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3">
-        <v>5</v>
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D3">
-        <v>80</v>
+        <v>300</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4">
-        <v>5</v>
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="D4">
-        <v>50</v>
+        <v>280</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="B5">
-        <v>5</v>
+      <c r="B5" t="s">
+        <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D5">
-        <v>70</v>
+        <v>220</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6">
         <v>5</v>
       </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D6">
-        <v>60</v>
+        <v>230</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7">
-        <v>3</v>
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>14</v>
       </c>
       <c r="C7" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="D7">
-        <v>120</v>
+        <v>240</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8">
-        <v>3</v>
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>13</v>
       </c>
       <c r="C8" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="D8">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9">
-        <v>3</v>
-      </c>
-      <c r="C9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D9">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10">
-        <v>4</v>
-      </c>
-      <c r="C10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D10">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11">
-        <v>4</v>
-      </c>
-      <c r="C11" t="s">
-        <v>6</v>
-      </c>
-      <c r="D11">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12">
-        <v>4</v>
-      </c>
-      <c r="C12" t="s">
-        <v>7</v>
-      </c>
-      <c r="D12">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13">
-        <v>4</v>
-      </c>
-      <c r="C13" t="s">
-        <v>8</v>
-      </c>
-      <c r="D13">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14">
-        <v>2</v>
-      </c>
-      <c r="C14" t="s">
-        <v>5</v>
-      </c>
-      <c r="D14">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>12</v>
-      </c>
-      <c r="B15">
-        <v>2</v>
-      </c>
-      <c r="C15" t="s">
-        <v>6</v>
-      </c>
-      <c r="D15">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>13</v>
-      </c>
-      <c r="B16">
-        <v>3</v>
-      </c>
-      <c r="C16" t="s">
-        <v>8</v>
-      </c>
-      <c r="D16">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>13</v>
-      </c>
-      <c r="B17">
-        <v>3</v>
-      </c>
-      <c r="C17" t="s">
-        <v>5</v>
-      </c>
-      <c r="D17">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>13</v>
-      </c>
-      <c r="B18">
-        <v>3</v>
-      </c>
-      <c r="C18" t="s">
-        <v>6</v>
-      </c>
-      <c r="D18">
-        <v>95</v>
+        <v>250</v>
       </c>
     </row>
   </sheetData>

--- a/Table_Source/University_Table.xlsx
+++ b/Table_Source/University_Table.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1860" yWindow="0" windowWidth="19560" windowHeight="8340"/>
+    <workbookView xWindow="2790" yWindow="0" windowWidth="19560" windowHeight="8340"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -409,13 +409,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="25.85546875" bestFit="1" customWidth="1"/>

--- a/Table_Source/University_Table.xlsx
+++ b/Table_Source/University_Table.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2790" yWindow="0" windowWidth="19560" windowHeight="8340"/>
+    <workbookView xWindow="3720" yWindow="0" windowWidth="19560" windowHeight="8340"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
   <si>
     <t>University</t>
   </si>
@@ -35,12 +35,6 @@
     <t>IIIT</t>
   </si>
   <si>
-    <t>NIT</t>
-  </si>
-  <si>
-    <t>VIT</t>
-  </si>
-  <si>
     <t>MIT</t>
   </si>
   <si>
@@ -57,9 +51,6 @@
   </si>
   <si>
     <t>32K</t>
-  </si>
-  <si>
-    <t>36K</t>
   </si>
   <si>
     <t>37K</t>
@@ -407,9 +398,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -424,13 +417,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -438,10 +431,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D2">
         <v>250</v>
@@ -452,10 +445,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D3">
         <v>300</v>
@@ -466,13 +459,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
         <v>13</v>
       </c>
-      <c r="C4" t="s">
-        <v>17</v>
-      </c>
       <c r="D4">
-        <v>280</v>
+        <v>230</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -483,10 +476,10 @@
         <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D5">
-        <v>220</v>
+        <v>240</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -497,37 +490,9 @@
         <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D6">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8">
         <v>250</v>
       </c>
     </row>
